--- a/UseCaseIScenarij/RegistracijaScenarij.xlsx
+++ b/UseCaseIScenarij/RegistracijaScenarij.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19222"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A06CC57-ACF3-4B3E-B00B-A1DE5F9509D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C0DD7E-19EB-42B5-AF32-637070FD49F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Scenarij X </t>
   </si>
@@ -62,7 +62,7 @@
     <t>5. Odabir opcije potvrdi </t>
   </si>
   <si>
-    <t>Alternativni tok:</t>
+    <t>Alternativni tok 1:</t>
   </si>
   <si>
     <t xml:space="preserve">1. Odabir opcije kreiranje računa trenera </t>
@@ -78,13 +78,22 @@
   </si>
   <si>
     <t>5. Potvrda accounta(računa)</t>
+  </si>
+  <si>
+    <t>Alternativni tok 2:</t>
+  </si>
+  <si>
+    <t>6. Ponovni unos podataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Kreiranje računa </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +111,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A21" sqref="A21:C26"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="A31" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,6 +605,26 @@
       </c>
       <c r="C26" s="2"/>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
